--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlindo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63B7E59-789A-4BB3-803C-CE0A547B24F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A428F-D16B-442D-89CF-5ED47BB2D822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="1" xr2:uid="{B3405978-5589-47AE-9A26-B7A7CF71C01C}"/>
   </bookViews>
   <sheets>
     <sheet name="coordenadas" sheetId="1" r:id="rId1"/>
-    <sheet name="productos" sheetId="2" r:id="rId2"/>
+    <sheet name="informacion" sheetId="3" r:id="rId2"/>
+    <sheet name="productos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="197">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -542,6 +543,81 @@
   </si>
   <si>
     <t>Clavos 2", 2 1/2", 3", 4" y 5"</t>
+  </si>
+  <si>
+    <t>Nombre del Asociado:</t>
+  </si>
+  <si>
+    <t>Dirección tienda:</t>
+  </si>
+  <si>
+    <t>Cta de abono para la venta:</t>
+  </si>
+  <si>
+    <t>Persona de contacto</t>
+  </si>
+  <si>
+    <t>Número de Contacto:</t>
+  </si>
+  <si>
+    <t>Número o Código Yape / Plin:</t>
+  </si>
+  <si>
+    <t>Mza R1 lt 4 III etapa C.C.H Micaela Bastidas</t>
+  </si>
+  <si>
+    <t>Cuenta BCP 47593085992011 | Cuenta Interbancaria 00247519308599201125</t>
+  </si>
+  <si>
+    <t>Eda Pintado Cordova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM 8 PIURA CHULUCANAS </t>
+  </si>
+  <si>
+    <t>Milagros Velasquez</t>
+  </si>
+  <si>
+    <t>Upis Luis Antonio Eguiguren Mz. B Lt. 19 - Piura</t>
+  </si>
+  <si>
+    <t>BCP Soles 475-1969304-0-37</t>
+  </si>
+  <si>
+    <t>Gladys Arevalo de Palacios</t>
+  </si>
+  <si>
+    <t>JOSÉ OLAYA 1260 - El Porvenir</t>
+  </si>
+  <si>
+    <t>310-9859382028</t>
+  </si>
+  <si>
+    <t>Gilmer Valdiviezo</t>
+  </si>
+  <si>
+    <t>ASTOPILCO 475 - RIO SECO</t>
+  </si>
+  <si>
+    <t>570-9882215026</t>
+  </si>
+  <si>
+    <t>VIOLETA AURORA</t>
+  </si>
+  <si>
+    <t>MZ. R LOTE 12 SECTOR 6 - EL MILAGRO</t>
+  </si>
+  <si>
+    <t>570-2590028072</t>
+  </si>
+  <si>
+    <t>Modesta Caldeón</t>
+  </si>
+  <si>
+    <t>CTA CTE BCP ALADINO SRL 5701616540061</t>
+  </si>
+  <si>
+    <t>Cuenta BCP Soles es 47591685272042.  |  Cuenta interbancaria es 00247519168527204220</t>
   </si>
 </sst>
 </file>
@@ -551,7 +627,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +674,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -693,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -751,6 +831,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1069,7 +1161,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,11 +1288,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CA155C-EBDF-458D-8B77-6B868F2267BF}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="10">
+        <v>961957234</v>
+      </c>
+      <c r="F2" s="11">
+        <v>961957234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="35">
+        <v>963321515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="20">
+        <v>94061623</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="10">
+        <v>982687414</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="37">
+        <v>981257242</v>
+      </c>
+      <c r="F6" s="11">
+        <v>998391439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="37">
+        <v>978001402</v>
+      </c>
+      <c r="F7" s="11">
+        <v>978001402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="37">
+        <v>994670510</v>
+      </c>
+      <c r="F8" s="37">
+        <v>994670510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D20A238-2D73-4F5A-80FD-D26FC51D44DB}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlindo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A428F-D16B-442D-89CF-5ED47BB2D822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1FF8FF-DD8D-45F8-9848-D7F278BF6597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="1" xr2:uid="{B3405978-5589-47AE-9A26-B7A7CF71C01C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4880" activeTab="2" xr2:uid="{B3405978-5589-47AE-9A26-B7A7CF71C01C}"/>
   </bookViews>
   <sheets>
     <sheet name="coordenadas" sheetId="1" r:id="rId1"/>
     <sheet name="informacion" sheetId="3" r:id="rId2"/>
     <sheet name="productos" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">productos!$A$1:$E$170</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="188">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -65,12 +68,6 @@
     <t>-8.1155796939823,-79.0443514900207</t>
   </si>
   <si>
-    <t>Aladino SRL</t>
-  </si>
-  <si>
-    <t>-8.08799236022694,-79.1020104289054</t>
-  </si>
-  <si>
     <t>Centro Ferretero y Servicios Generales Divino Niño Jesús E.I.R.L</t>
   </si>
   <si>
@@ -527,24 +524,6 @@
     <t xml:space="preserve"> GRIS</t>
   </si>
   <si>
-    <t>Fierro Aceros Arequipa barra 5/8</t>
-  </si>
-  <si>
-    <t>Tuboplast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alambre </t>
-  </si>
-  <si>
-    <t>Alambre N°16 y 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clavos </t>
-  </si>
-  <si>
-    <t>Clavos 2", 2 1/2", 3", 4" y 5"</t>
-  </si>
-  <si>
     <t>Nombre del Asociado:</t>
   </si>
   <si>
@@ -612,9 +591,6 @@
   </si>
   <si>
     <t>Modesta Caldeón</t>
-  </si>
-  <si>
-    <t>CTA CTE BCP ALADINO SRL 5701616540061</t>
   </si>
   <si>
     <t>Cuenta BCP Soles es 47591685272042.  |  Cuenta interbancaria es 00247519168527204220</t>
@@ -1158,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049BACEB-E477-44F4-A70D-6E0F001A1E7D}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,7 +1203,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1235,7 +1211,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1243,7 +1219,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1252,34 +1228,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CA155C-EBDF-458D-8B77-6B868F2267BF}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,36 +1275,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E2" s="10">
         <v>961957234</v>
@@ -1347,10 +1315,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1361,14 +1329,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E4" s="20">
         <v>94061623</v>
@@ -1377,19 +1345,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D5" s="10">
         <v>982687414</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -1398,13 +1366,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E6" s="37">
         <v>981257242</v>
@@ -1418,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E7" s="37">
         <v>978001402</v>
@@ -1438,13 +1406,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E8" s="37">
         <v>994670510</v>
@@ -1462,18 +1430,6 @@
       <c r="D9" s="34"/>
       <c r="E9" s="38"/>
       <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1482,43 +1438,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D20A238-2D73-4F5A-80FD-D26FC51D44DB}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="12">
         <v>34.200000000000003</v>
@@ -1526,16 +1482,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="12">
         <v>36</v>
@@ -1543,16 +1499,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="12">
         <v>35.4</v>
@@ -1560,16 +1516,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="12">
         <v>33</v>
@@ -1577,16 +1533,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E6" s="12">
         <v>57.8</v>
@@ -1594,16 +1550,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="12">
         <v>37.200000000000003</v>
@@ -1611,16 +1567,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="12">
         <v>22.2</v>
@@ -1628,16 +1584,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="12">
         <v>15.7</v>
@@ -1645,16 +1601,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="12">
         <v>8.8000000000000007</v>
@@ -1662,16 +1618,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="12">
         <v>17.5</v>
@@ -1679,16 +1635,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="12">
         <v>15.8</v>
@@ -1696,16 +1652,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="12">
         <v>32.799999999999997</v>
@@ -1713,16 +1669,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="12">
         <v>20.5</v>
@@ -1730,16 +1686,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="12">
         <v>26.5</v>
@@ -1747,16 +1703,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="E16" s="12">
         <v>3.2</v>
@@ -1764,16 +1720,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="12">
         <v>2.4</v>
@@ -1781,16 +1737,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E18" s="12">
         <v>2.6</v>
@@ -1798,13 +1754,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12">
@@ -1813,13 +1769,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12">
@@ -1828,13 +1784,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="12">
@@ -1843,13 +1799,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="12">
@@ -1858,13 +1814,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12">
@@ -1873,13 +1829,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12">
@@ -1888,16 +1844,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="E25" s="15">
         <v>33.200000000000003</v>
@@ -1905,16 +1861,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="E26" s="15">
         <v>35.700000000000003</v>
@@ -1922,16 +1878,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="15">
         <v>35.200000000000003</v>
@@ -1939,31 +1895,31 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="15">
         <v>56.86</v>
@@ -1971,16 +1927,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="E30" s="15">
         <v>8.5</v>
@@ -1988,16 +1944,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E31" s="15">
         <v>20.5</v>
@@ -2005,16 +1961,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="E32" s="15">
         <v>36.76</v>
@@ -2022,16 +1978,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="15">
         <v>14.71</v>
@@ -2039,16 +1995,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" s="15">
         <v>83.62</v>
@@ -2056,16 +2012,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="15">
         <v>32.799999999999997</v>
@@ -2073,16 +2029,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="15">
         <v>18.899999999999999</v>
@@ -2090,16 +2046,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="15">
         <v>2.2999999999999998</v>
@@ -2107,13 +2063,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="15">
@@ -2122,13 +2078,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="15">
@@ -2137,13 +2093,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15">
@@ -2152,13 +2108,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="15">
@@ -2167,16 +2123,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E42" s="15">
         <v>83</v>
@@ -2184,16 +2140,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="E43" s="15">
         <v>65</v>
@@ -2201,16 +2157,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="E44" s="15">
         <v>14</v>
@@ -2218,16 +2174,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="E45" s="15">
         <v>19.5</v>
@@ -2235,16 +2191,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="E46" s="15">
         <v>22</v>
@@ -2252,16 +2208,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="15">
         <v>27</v>
@@ -2269,16 +2225,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E48" s="15">
         <v>8.3000000000000007</v>
@@ -2286,16 +2242,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E49" s="15">
         <v>20.079999999999998</v>
@@ -2303,16 +2259,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="15">
         <v>36</v>
@@ -2320,16 +2276,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51" s="15">
         <v>55.68</v>
@@ -2337,16 +2293,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="D52" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="15">
         <v>81.88</v>
@@ -2354,16 +2310,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" s="15">
         <v>14.4</v>
@@ -2371,16 +2327,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E54" s="15">
         <v>32.119999999999997</v>
@@ -2388,16 +2344,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="E55" s="15">
         <v>18</v>
@@ -2405,16 +2361,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E56" s="15">
         <v>21</v>
@@ -2422,16 +2378,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E57" s="15">
         <v>8</v>
@@ -2439,16 +2395,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E58" s="17">
         <v>18.559999999999999</v>
@@ -2456,16 +2412,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E59" s="18">
         <v>33.270000000000003</v>
@@ -2473,16 +2429,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E60" s="18">
         <v>51.46</v>
@@ -2490,16 +2446,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="D61" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E61" s="18">
         <v>75.680000000000007</v>
@@ -2507,16 +2463,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E62" s="18">
         <v>13.31</v>
@@ -2524,16 +2480,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E63" s="18">
         <v>29.69</v>
@@ -2541,16 +2497,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="E64" s="18">
         <v>480</v>
@@ -2558,16 +2514,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" s="18">
         <v>580</v>
@@ -2575,16 +2531,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="E66" s="21">
         <v>35.9</v>
@@ -2592,16 +2548,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="E67" s="21">
         <v>33.299999999999997</v>
@@ -2609,16 +2565,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E68" s="21">
         <v>35.4</v>
@@ -2626,16 +2582,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E69" s="21">
         <v>33.299999999999997</v>
@@ -2643,16 +2599,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E70" s="21">
         <v>57.01</v>
@@ -2660,16 +2616,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E71" s="21">
         <v>20.56</v>
@@ -2677,16 +2633,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E72" s="21">
         <v>36.86</v>
@@ -2694,16 +2650,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E73" s="21">
         <v>8.2899999999999991</v>
@@ -2711,16 +2667,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E74" s="21">
         <v>14.85</v>
@@ -2728,16 +2684,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E75" s="21">
         <v>32.89</v>
@@ -2745,16 +2701,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E76" s="21">
         <v>147.44999999999999</v>
@@ -2762,16 +2718,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E77" s="21">
         <v>56.58</v>
@@ -2779,16 +2735,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B78" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E78" s="21">
         <v>20.399999999999999</v>
@@ -2796,16 +2752,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B79" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E79" s="21">
         <v>36.58</v>
@@ -2813,16 +2769,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B80" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E80" s="21">
         <v>8.2200000000000006</v>
@@ -2830,16 +2786,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B81" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E81" s="21">
         <v>14.63</v>
@@ -2847,16 +2803,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B82" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E82" s="21">
         <v>32.64</v>
@@ -2864,16 +2820,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B83" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E83" s="21">
         <v>14.63</v>
@@ -2881,16 +2837,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E84" s="21">
         <v>53.58</v>
@@ -2898,16 +2854,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E85" s="21">
         <v>19.32</v>
@@ -2915,16 +2871,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E86" s="21">
         <v>34.64</v>
@@ -2932,16 +2888,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E87" s="21">
         <v>7.79</v>
@@ -2949,16 +2905,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E88" s="21">
         <v>13.86</v>
@@ -2966,16 +2922,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>120</v>
       </c>
       <c r="E89" s="21">
         <v>30.91</v>
@@ -2983,16 +2939,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E90" s="21">
         <v>138.56</v>
@@ -3000,16 +2956,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E91" s="21">
         <v>13.24</v>
@@ -3017,16 +2973,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B92" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E92" s="21">
         <v>13.24</v>
@@ -3034,16 +2990,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="21">
         <v>18.059999999999999</v>
@@ -3051,16 +3007,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="21">
         <v>18.940000000000001</v>
@@ -3068,16 +3024,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E95" s="21">
         <v>23.19</v>
@@ -3085,16 +3041,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="21">
         <v>23.23</v>
@@ -3102,16 +3058,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B97" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="E97" s="21">
         <v>3.81</v>
@@ -3119,16 +3075,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B98" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="E98" s="21">
         <v>3.81</v>
@@ -3136,16 +3092,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E99" s="21">
         <v>3.89</v>
@@ -3153,16 +3109,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E100" s="21">
         <v>3.89</v>
@@ -3170,16 +3126,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E101" s="21">
         <v>3.89</v>
@@ -3187,16 +3143,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E102" s="21">
         <v>3.89</v>
@@ -3204,16 +3160,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E103" s="21">
         <v>3.89</v>
@@ -3221,16 +3177,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E104" s="21">
         <v>5.63</v>
@@ -3238,16 +3194,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E105" s="21">
         <v>5.48</v>
@@ -3255,16 +3211,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E106" s="21">
         <v>5.09</v>
@@ -3272,16 +3228,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E107" s="21">
         <v>6.1</v>
@@ -3289,16 +3245,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E108" s="21">
         <v>6.1</v>
@@ -3306,16 +3262,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E109" s="21">
         <v>5.83</v>
@@ -3323,16 +3279,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E110" s="21">
         <v>33.200000000000003</v>
@@ -3340,16 +3296,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E111" s="21">
         <v>35.6</v>
@@ -3357,16 +3313,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E112" s="21">
         <v>58</v>
@@ -3374,16 +3330,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E113" s="21">
         <v>21</v>
@@ -3391,16 +3347,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E114" s="21">
         <v>38</v>
@@ -3408,16 +3364,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E115" s="21">
         <v>9</v>
@@ -3425,16 +3381,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E116" s="21">
         <v>17</v>
@@ -3442,16 +3398,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E117" s="21">
         <v>13</v>
@@ -3459,16 +3415,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E118" s="21">
         <v>18</v>
@@ -3476,16 +3432,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B119" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E119" s="21">
         <v>23</v>
@@ -3493,16 +3449,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E120" s="24">
         <v>660</v>
@@ -3513,13 +3469,13 @@
         <v>2</v>
       </c>
       <c r="B121" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E121" s="27">
         <v>30.5</v>
@@ -3530,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="B122" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E122" s="27">
         <v>33.5</v>
@@ -3547,13 +3503,13 @@
         <v>2</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E123" s="27">
         <v>32.5</v>
@@ -3564,13 +3520,13 @@
         <v>2</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E124" s="27">
         <v>29</v>
@@ -3581,13 +3537,13 @@
         <v>2</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E125" s="28">
         <v>58</v>
@@ -3598,13 +3554,13 @@
         <v>2</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E126" s="28">
         <v>37.5</v>
@@ -3615,13 +3571,13 @@
         <v>2</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E127" s="28">
         <v>33.5</v>
@@ -3632,13 +3588,13 @@
         <v>2</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E128" s="27">
         <v>10</v>
@@ -3649,13 +3605,13 @@
         <v>2</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E129" s="27">
         <v>2.8</v>
@@ -3666,13 +3622,13 @@
         <v>2</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E130" s="27">
         <v>1.05</v>
@@ -3683,13 +3639,13 @@
         <v>2</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E131" s="27">
         <v>2.9</v>
@@ -3700,13 +3656,13 @@
         <v>2</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E132" s="27">
         <v>2.5</v>
@@ -3717,13 +3673,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E133" s="27">
         <v>30</v>
@@ -3734,13 +3690,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E134" s="27">
         <v>33</v>
@@ -3751,13 +3707,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E135" s="27">
         <v>32</v>
@@ -3768,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E136" s="27">
         <v>28.5</v>
@@ -3785,13 +3741,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E137" s="28">
         <v>57.5</v>
@@ -3802,13 +3758,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E138" s="28">
         <v>37.200000000000003</v>
@@ -3819,13 +3775,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E139" s="28">
         <v>8.5</v>
@@ -3837,10 +3793,10 @@
       </c>
       <c r="B140" s="26"/>
       <c r="C140" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E140" s="28">
         <v>33.299999999999997</v>
@@ -3851,13 +3807,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E141" s="27">
         <v>10</v>
@@ -3868,13 +3824,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E142" s="27">
         <v>2.5</v>
@@ -3885,13 +3841,13 @@
         <v>4</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E143" s="27">
         <v>1.02</v>
@@ -3902,13 +3858,13 @@
         <v>4</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E144" s="27">
         <v>2.9</v>
@@ -3919,13 +3875,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E145" s="27">
         <v>2.7</v>
@@ -3936,13 +3892,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E146" s="27">
         <v>2.5</v>
@@ -3953,13 +3909,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E147" s="27">
         <v>29.9</v>
@@ -3970,13 +3926,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E148" s="27">
         <v>33.5</v>
@@ -3987,13 +3943,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E149" s="27">
         <v>32.5</v>
@@ -4004,13 +3960,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E150" s="27">
         <v>28.4</v>
@@ -4021,13 +3977,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E151" s="28">
         <v>56.5</v>
@@ -4038,13 +3994,13 @@
         <v>6</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E152" s="28">
         <v>36.6</v>
@@ -4055,13 +4011,13 @@
         <v>6</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E153" s="28">
         <v>8.3000000000000007</v>
@@ -4072,13 +4028,13 @@
         <v>6</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E154" s="27">
         <v>8</v>
@@ -4089,13 +4045,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E155" s="27">
         <v>6.5</v>
@@ -4106,13 +4062,13 @@
         <v>6</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E156" s="27">
         <v>16.5</v>
@@ -4123,13 +4079,13 @@
         <v>6</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E157" s="27">
         <v>2.5</v>
@@ -4140,13 +4096,13 @@
         <v>6</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E158" s="27">
         <v>1.05</v>
@@ -4157,13 +4113,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E159" s="27">
         <v>2.85</v>
@@ -4174,13 +4130,13 @@
         <v>6</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E160" s="27">
         <v>2.5499999999999998</v>
@@ -4191,13 +4147,13 @@
         <v>6</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E161" s="30">
         <v>0.75</v>
@@ -4208,13 +4164,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="C162" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D162" s="31" t="s">
-        <v>30</v>
       </c>
       <c r="E162" s="32">
         <v>30.5</v>
@@ -4225,13 +4181,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="C163" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D163" s="31" t="s">
-        <v>30</v>
       </c>
       <c r="E163" s="32">
         <v>33.700000000000003</v>
@@ -4242,13 +4198,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E164" s="32">
         <v>32.700000000000003</v>
@@ -4259,13 +4215,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E165" s="32">
         <v>29</v>
@@ -4276,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E166" s="32">
         <v>57.3</v>
@@ -4293,13 +4249,13 @@
         <v>8</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E167" s="32">
         <v>13.5</v>
@@ -4310,13 +4266,13 @@
         <v>8</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E168" s="32">
         <v>2.9</v>
@@ -4327,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="B169" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D169" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="C169" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D169" s="31" t="s">
-        <v>164</v>
       </c>
       <c r="E169" s="32">
         <v>28</v>
@@ -4344,169 +4300,16 @@
         <v>8</v>
       </c>
       <c r="B170" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D170" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="C170" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D170" s="31" t="s">
-        <v>164</v>
       </c>
       <c r="E170" s="32">
         <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E171" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E172" s="22">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E173" s="22">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E174" s="22">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E175" s="22">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E176" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E177" s="22">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E178" s="22">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E179" s="22">
-        <v>5.5</v>
       </c>
     </row>
   </sheetData>
